--- a/directory/templates/template-attendance-harian.xlsx
+++ b/directory/templates/template-attendance-harian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F839101-5F00-46C9-8953-1D49A1321D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58626617-AF8A-4BCF-A624-260F8E2C7C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CD112B0-DD8C-4645-8F89-6FC547AE4A2B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Export Date : {app_export_date}</t>
   </si>
@@ -33,15 +33,9 @@
     <t>NO</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>NAMA PEGAWAI</t>
   </si>
   <si>
-    <t>DEPARTEMEN</t>
-  </si>
-  <si>
     <t>VERIFIKASI</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>[pegawai_nama]</t>
   </si>
   <si>
-    <t>[pegawai_departemen]</t>
-  </si>
-  <si>
     <t>[verifikasi]</t>
   </si>
   <si>
@@ -75,10 +66,13 @@
     <t>SIMABSEN | ABSEN Hari {status}</t>
   </si>
   <si>
-    <t>[absen_id]</t>
-  </si>
-  <si>
     <t>[jam_absen]</t>
+  </si>
+  <si>
+    <t>[nrp]</t>
+  </si>
+  <si>
+    <t>NRP</t>
   </si>
 </sst>
 </file>
@@ -210,12 +204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -223,9 +214,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,9 +223,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,7 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,9 +248,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -284,6 +265,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,339 +629,336 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4"/>
+      <c r="B1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="4"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="4"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="4"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H100000">
     <cfRule type="expression" dxfId="1" priority="1">
